--- a/data/trans_orig/P35A_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>47955</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34569</v>
+        <v>36357</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62517</v>
+        <v>65678</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09615220362348582</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06931326507583366</v>
+        <v>0.07289755658792449</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1253497960538552</v>
+        <v>0.1316881924096411</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -762,19 +762,19 @@
         <v>57697</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44808</v>
+        <v>45860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70413</v>
+        <v>72283</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09252489524730347</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07185656363172895</v>
+        <v>0.07354374942470918</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1129177255579587</v>
+        <v>0.1159163129755094</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -783,19 +783,19 @@
         <v>105652</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87797</v>
+        <v>87319</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>127680</v>
+        <v>125308</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09413680808501147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07822843861748395</v>
+        <v>0.07780187773899713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1137642484350162</v>
+        <v>0.1116512405968271</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>20001</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12560</v>
+        <v>12996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30731</v>
+        <v>31988</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0401027201797574</v>
+        <v>0.04010272017975741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02518443891941972</v>
+        <v>0.02605745242634449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06161780617793348</v>
+        <v>0.06413801533393743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -833,19 +833,19 @@
         <v>24544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16769</v>
+        <v>17236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34900</v>
+        <v>35050</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03935968367475752</v>
+        <v>0.03935968367475751</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02689089308332354</v>
+        <v>0.02764000818277786</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05596717771240696</v>
+        <v>0.05620783927763676</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -854,19 +854,19 @@
         <v>44545</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34075</v>
+        <v>33274</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59462</v>
+        <v>57381</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03968987619137933</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03036118370208469</v>
+        <v>0.02964759719513597</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05298150284811359</v>
+        <v>0.05112700662476935</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>126241</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>108939</v>
+        <v>106540</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>146591</v>
+        <v>146561</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2531211152766219</v>
+        <v>0.253121115276622</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2184286400443368</v>
+        <v>0.2136184453393435</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2939240096711707</v>
+        <v>0.2938635688860277</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>307</v>
@@ -904,19 +904,19 @@
         <v>205302</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>186158</v>
+        <v>187125</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>227873</v>
+        <v>227645</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3292311284174885</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2985309476809618</v>
+        <v>0.3000815160519471</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3654273363363778</v>
+        <v>0.3650609043223143</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>435</v>
@@ -925,19 +925,19 @@
         <v>331544</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>303803</v>
+        <v>304141</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>363713</v>
+        <v>362106</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2954091605733845</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.27069197661673</v>
+        <v>0.2709934364427159</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3240727197941107</v>
+        <v>0.3226405918068148</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>304542</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>279341</v>
+        <v>281250</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>326127</v>
+        <v>327305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6106239609201349</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5600948827928632</v>
+        <v>0.5639218921027203</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6539032415538075</v>
+        <v>0.6562646150530288</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>445</v>
@@ -975,19 +975,19 @@
         <v>336037</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>311899</v>
+        <v>311025</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>357850</v>
+        <v>358403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5388842926604505</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5001754218735113</v>
+        <v>0.4987735244409366</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5738642949649158</v>
+        <v>0.5747510544859047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>708</v>
@@ -996,19 +996,19 @@
         <v>640580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>608484</v>
+        <v>609713</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>675781</v>
+        <v>675819</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5707641551502247</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5421662929073249</v>
+        <v>0.5432616402384522</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6021289771960752</v>
+        <v>0.6021628620276378</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>161282</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>135753</v>
+        <v>136151</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>190189</v>
+        <v>188720</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1679776594767057</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1413893131498403</v>
+        <v>0.1418036457187295</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1980855169107935</v>
+        <v>0.1965555788763171</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>168</v>
@@ -1121,19 +1121,19 @@
         <v>128996</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>110684</v>
+        <v>109852</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>151961</v>
+        <v>149843</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1156038561259829</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09919226500920056</v>
+        <v>0.09844710283707861</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1361839573117615</v>
+        <v>0.1342863236242512</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>305</v>
@@ -1142,19 +1142,19 @@
         <v>290278</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>257865</v>
+        <v>259200</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>326318</v>
+        <v>322427</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1398265675554327</v>
+        <v>0.1398265675554326</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1242133815011582</v>
+        <v>0.1248565279151634</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1571868805698867</v>
+        <v>0.1553127400689645</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>38234</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28311</v>
+        <v>27418</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51223</v>
+        <v>50698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03982128525391074</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02948690956545618</v>
+        <v>0.02855611511354353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05334960966429804</v>
+        <v>0.05280322192312812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -1192,19 +1192,19 @@
         <v>49137</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37991</v>
+        <v>38648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61100</v>
+        <v>61178</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04403552250439616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03404663714050975</v>
+        <v>0.03463522220834091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05475647795639654</v>
+        <v>0.05482639218130349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -1213,19 +1213,19 @@
         <v>87371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72414</v>
+        <v>72859</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105329</v>
+        <v>106836</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04208645166586717</v>
+        <v>0.04208645166586716</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03488178007565541</v>
+        <v>0.03509597012560398</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0507370192520199</v>
+        <v>0.05146287839893783</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>257050</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>227526</v>
+        <v>229680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>290733</v>
+        <v>284652</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2677217401715364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2369729313772522</v>
+        <v>0.2392155463868933</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3028033497425545</v>
+        <v>0.2964705085535209</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>518</v>
@@ -1263,19 +1263,19 @@
         <v>326934</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>303721</v>
+        <v>299760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>358157</v>
+        <v>352430</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2929915684261997</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2721886331881351</v>
+        <v>0.268638193926082</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3209722826331727</v>
+        <v>0.3158400334084551</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>805</v>
@@ -1284,19 +1284,19 @@
         <v>583984</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>547836</v>
+        <v>547442</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>624278</v>
+        <v>625343</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2813043561459402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2638921545189315</v>
+        <v>0.2637022909614812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3007141610318353</v>
+        <v>0.3012271926185395</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>503572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>467842</v>
+        <v>470657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>539078</v>
+        <v>539383</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5244793150978473</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4872662586920797</v>
+        <v>0.4901981327497588</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.561459973601932</v>
+        <v>0.5617776087215347</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>853</v>
@@ -1334,19 +1334,19 @@
         <v>610781</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>577975</v>
+        <v>579978</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>636287</v>
+        <v>642100</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5473690529434211</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5179691375330242</v>
+        <v>0.5197643170634569</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.570226786450335</v>
+        <v>0.5754359650875763</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1297</v>
@@ -1355,19 +1355,19 @@
         <v>1114353</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1071077</v>
+        <v>1067953</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1156551</v>
+        <v>1159228</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5367826246327601</v>
+        <v>0.5367826246327599</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5159364979511413</v>
+        <v>0.5144317696847016</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5571091070937431</v>
+        <v>0.5583987752537055</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>81276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65111</v>
+        <v>63943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103211</v>
+        <v>100609</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07766634913165234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06221865594109653</v>
+        <v>0.06110255609324542</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09862718179149105</v>
+        <v>0.09614036471365872</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>89</v>
@@ -1480,19 +1480,19 @@
         <v>72225</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57888</v>
+        <v>58065</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88468</v>
+        <v>89742</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.068967570365406</v>
+        <v>0.06896757036540599</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05527718044166989</v>
+        <v>0.05544660918135501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08447822709716377</v>
+        <v>0.08569446451409206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>167</v>
@@ -1501,19 +1501,19 @@
         <v>153501</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>130526</v>
+        <v>129861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>178620</v>
+        <v>179008</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07331539544684149</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06234178870659849</v>
+        <v>0.06202434877120701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08531276015994718</v>
+        <v>0.0854978077199248</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>33837</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23103</v>
+        <v>22618</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51134</v>
+        <v>48116</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03233378899962398</v>
+        <v>0.03233378899962399</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02207708015980669</v>
+        <v>0.02161325471070349</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04886313611601038</v>
+        <v>0.04597919186347408</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -1551,19 +1551,19 @@
         <v>31218</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21990</v>
+        <v>23074</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41518</v>
+        <v>41208</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02981029916875929</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02099787728505945</v>
+        <v>0.02203357922812106</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03964556638236756</v>
+        <v>0.03934923901744131</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>76</v>
@@ -1572,19 +1572,19 @@
         <v>65055</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>50180</v>
+        <v>51960</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>80778</v>
+        <v>83448</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0310715902849277</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02396708282207933</v>
+        <v>0.02481704129301754</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03858111893705691</v>
+        <v>0.03985633113058345</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>230058</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>205053</v>
+        <v>207414</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>258360</v>
+        <v>260800</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.219840126420217</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1959454377071017</v>
+        <v>0.1982018967168107</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2468849470443673</v>
+        <v>0.249217100781443</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>340</v>
@@ -1622,19 +1622,19 @@
         <v>221628</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>199137</v>
+        <v>199603</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>245485</v>
+        <v>245048</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2116325513436463</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1901554337451178</v>
+        <v>0.1906004054436616</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2344133280887357</v>
+        <v>0.2339955380939202</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>605</v>
@@ -1643,19 +1643,19 @@
         <v>451686</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>416226</v>
+        <v>417582</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>486992</v>
+        <v>489782</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2157348629134205</v>
+        <v>0.2157348629134206</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1987981574174396</v>
+        <v>0.1994458415779735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2325975506401412</v>
+        <v>0.2339300462458746</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>701308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>666600</v>
+        <v>667111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>731914</v>
+        <v>731816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6701597354485066</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6369934721630536</v>
+        <v>0.6374817803781059</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6994064118648775</v>
+        <v>0.699313038664844</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1042</v>
@@ -1693,19 +1693,19 @@
         <v>722160</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>697979</v>
+        <v>696665</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>749097</v>
+        <v>747624</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6895895791221884</v>
+        <v>0.6895895791221883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6664990129510854</v>
+        <v>0.6652439134642375</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7153112917091945</v>
+        <v>0.7139052530012312</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1696</v>
@@ -1714,19 +1714,19 @@
         <v>1423468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1384425</v>
+        <v>1381006</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1464498</v>
+        <v>1463294</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6798781513548103</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6612304121511106</v>
+        <v>0.6595972205867114</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6994749714981666</v>
+        <v>0.698899716005557</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>7108</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3056</v>
+        <v>2752</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17564</v>
+        <v>16690</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.00728286240367771</v>
+        <v>0.007282862403677709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003131500523797147</v>
+        <v>0.002819492879715434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01799687205146496</v>
+        <v>0.0171013668243842</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1839,19 +1839,19 @@
         <v>8314</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3739</v>
+        <v>3926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22504</v>
+        <v>23243</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009153915374573062</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004116295326228493</v>
+        <v>0.004322392874390349</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02477739585430979</v>
+        <v>0.02559088750251948</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1860,19 +1860,19 @@
         <v>15422</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8959</v>
+        <v>8491</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30526</v>
+        <v>29587</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.008184785409369223</v>
+        <v>0.008184785409369221</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004755047542858312</v>
+        <v>0.004506286448750172</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01620126469089063</v>
+        <v>0.01570294671452079</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>6497</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2788</v>
+        <v>2635</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13280</v>
+        <v>13365</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.00665736285727764</v>
+        <v>0.006657362857277638</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002856758434407275</v>
+        <v>0.002699677092661732</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01360801699277267</v>
+        <v>0.01369416767282917</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1910,19 +1910,19 @@
         <v>7723</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3972</v>
+        <v>4247</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12714</v>
+        <v>12767</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.008503537935918539</v>
+        <v>0.008503537935918537</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004372836760734715</v>
+        <v>0.004675536916941661</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01399848921161623</v>
+        <v>0.01405680953175181</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1931,19 +1931,19 @@
         <v>14220</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9056</v>
+        <v>8504</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23038</v>
+        <v>21478</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.007547293715388921</v>
+        <v>0.00754729371538892</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004806179858616711</v>
+        <v>0.004513341180682149</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01222720317033778</v>
+        <v>0.01139917978792813</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>219602</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>193208</v>
+        <v>192489</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>248261</v>
+        <v>250630</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2250183284449702</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1979729885062593</v>
+        <v>0.1972366002916443</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2543842259883691</v>
+        <v>0.2568112497045643</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>300</v>
@@ -1981,19 +1981,19 @@
         <v>198566</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>176485</v>
+        <v>178468</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>219434</v>
+        <v>221225</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2186240665903366</v>
+        <v>0.2186240665903365</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1943132826748142</v>
+        <v>0.1964962004467922</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2416008630241074</v>
+        <v>0.2435722248478465</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>543</v>
@@ -2002,19 +2002,19 @@
         <v>418167</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>385222</v>
+        <v>382411</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>454273</v>
+        <v>455639</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2219360363020866</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2044506399092079</v>
+        <v>0.2029590984888221</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2410982912431776</v>
+        <v>0.2418233009744797</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>742722</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>715057</v>
+        <v>712016</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>770306</v>
+        <v>772506</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7610414462940744</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7326933448897445</v>
+        <v>0.7295774440485338</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7893048699748434</v>
+        <v>0.7915594211338022</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>998</v>
@@ -2052,19 +2052,19 @@
         <v>693648</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>670593</v>
+        <v>671008</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>717547</v>
+        <v>716658</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7637184800991719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7383342632272061</v>
+        <v>0.7387918523983288</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7900318736872222</v>
+        <v>0.7890526625676706</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1688</v>
@@ -2073,19 +2073,19 @@
         <v>1436370</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1400699</v>
+        <v>1396481</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1471331</v>
+        <v>1473479</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7623318845731554</v>
+        <v>0.7623318845731553</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.743400044899307</v>
+        <v>0.7411611838135368</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7808868072666347</v>
+        <v>0.7820265987212915</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>297620</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>261594</v>
+        <v>260632</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>333467</v>
+        <v>333266</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08549148738959539</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07514304695545267</v>
+        <v>0.07486675523078377</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09578856630047486</v>
+        <v>0.09573067826662063</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>342</v>
@@ -2198,19 +2198,19 @@
         <v>267232</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>238508</v>
+        <v>237105</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>299667</v>
+        <v>296939</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07232439137172833</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06455024806240711</v>
+        <v>0.06417072159334476</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08110253353057328</v>
+        <v>0.08036414351854172</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>608</v>
@@ -2219,19 +2219,19 @@
         <v>564852</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>518422</v>
+        <v>522451</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>617443</v>
+        <v>612006</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07871195381309339</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07224191733353372</v>
+        <v>0.07280330885766938</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08604035655319331</v>
+        <v>0.08528282064484562</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>98568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>79849</v>
+        <v>79469</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>121165</v>
+        <v>122567</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02831381273602625</v>
+        <v>0.02831381273602624</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02293659959487814</v>
+        <v>0.02282738529278153</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03480472826061115</v>
+        <v>0.0352074167545083</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>158</v>
@@ -2269,19 +2269,19 @@
         <v>112623</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>94770</v>
+        <v>95591</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>130231</v>
+        <v>131100</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03048044598230198</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02564888108138509</v>
+        <v>0.02587101603879997</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03524612450682545</v>
+        <v>0.0354813424387091</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>259</v>
@@ -2290,19 +2290,19 @@
         <v>211191</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>185394</v>
+        <v>182327</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>240704</v>
+        <v>238359</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0294293785996882</v>
+        <v>0.02942937859968821</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02583450694934585</v>
+        <v>0.02540716875758109</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03354198712153769</v>
+        <v>0.03321528277994386</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>832951</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>785257</v>
+        <v>782981</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>883545</v>
+        <v>883320</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2392654257920017</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2255652421868092</v>
+        <v>0.2249114512168999</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2537986100784772</v>
+        <v>0.253733860366784</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1465</v>
@@ -2340,19 +2340,19 @@
         <v>952430</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>907275</v>
+        <v>907416</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>997085</v>
+        <v>996103</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2577680433447538</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2455471830882019</v>
+        <v>0.2455851735998529</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2698535495010601</v>
+        <v>0.2695876363789906</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2388</v>
@@ -2361,19 +2361,19 @@
         <v>1785381</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1717437</v>
+        <v>1719147</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1862161</v>
+        <v>1855540</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2487921366766071</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2393241661398126</v>
+        <v>0.239562346696569</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2594913817585166</v>
+        <v>0.2585687405994146</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2252145</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2187364</v>
+        <v>2188195</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2308204</v>
+        <v>2312750</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6469292740823767</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6283211243386868</v>
+        <v>0.6285598487564812</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6630323200560212</v>
+        <v>0.6643382509825758</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3338</v>
@@ -2411,19 +2411,19 @@
         <v>2362628</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2313304</v>
+        <v>2314588</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2414529</v>
+        <v>2416501</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6394271193012159</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6260782022161423</v>
+        <v>0.6264256924407269</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.653473758690292</v>
+        <v>0.6540075589066211</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5389</v>
@@ -2432,19 +2432,19 @@
         <v>4614772</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4536140</v>
+        <v>4539008</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4692380</v>
+        <v>4694625</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6430665309106113</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6321092041038876</v>
+        <v>0.6325087648233996</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6538812250874613</v>
+        <v>0.6541940418870632</v>
       </c>
     </row>
     <row r="28">
